--- a/team_specific_matrix/UC Santa Barbara_B.xlsx
+++ b/team_specific_matrix/UC Santa Barbara_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2186046511627907</v>
+        <v>0.2153846153846154</v>
       </c>
       <c r="C2">
-        <v>0.4976744186046512</v>
+        <v>0.5115384615384615</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02790697674418605</v>
+        <v>0.02692307692307692</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1441860465116279</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1116279069767442</v>
+        <v>0.1076923076923077</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.009174311926605505</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="C3">
-        <v>0.03669724770642202</v>
+        <v>0.02962962962962963</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03669724770642202</v>
+        <v>0.02962962962962963</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7247706422018348</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1926605504587156</v>
+        <v>0.1925925925925926</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08571428571428572</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5428571428571428</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3714285714285714</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0426829268292683</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01219512195121951</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="E6">
-        <v>0.006097560975609756</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="F6">
-        <v>0.0426829268292683</v>
+        <v>0.04232804232804233</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1951219512195122</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02439024390243903</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2439024390243902</v>
+        <v>0.2433862433862434</v>
       </c>
       <c r="R6">
-        <v>0.07317073170731707</v>
+        <v>0.06878306878306878</v>
       </c>
       <c r="S6">
-        <v>0.3597560975609756</v>
+        <v>0.3597883597883598</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07386363636363637</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01704545454545454</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="E7">
-        <v>0.005681818181818182</v>
+        <v>0.004761904761904762</v>
       </c>
       <c r="F7">
-        <v>0.05681818181818182</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1079545454545455</v>
+        <v>0.1</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01136363636363636</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2215909090909091</v>
+        <v>0.219047619047619</v>
       </c>
       <c r="R7">
-        <v>0.1079545454545455</v>
+        <v>0.1</v>
       </c>
       <c r="S7">
-        <v>0.3977272727272727</v>
+        <v>0.4142857142857143</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08737864077669903</v>
+        <v>0.09221311475409837</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01213592233009709</v>
+        <v>0.01844262295081967</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05097087378640777</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09223300970873786</v>
+        <v>0.09221311475409837</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01456310679611651</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2063106796116505</v>
+        <v>0.2110655737704918</v>
       </c>
       <c r="R8">
-        <v>0.0825242718446602</v>
+        <v>0.07581967213114754</v>
       </c>
       <c r="S8">
-        <v>0.4538834951456311</v>
+        <v>0.444672131147541</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1171875</v>
+        <v>0.1118421052631579</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0078125</v>
+        <v>0.006578947368421052</v>
       </c>
       <c r="E9">
-        <v>0.0078125</v>
+        <v>0.006578947368421052</v>
       </c>
       <c r="F9">
-        <v>0.0625</v>
+        <v>0.05921052631578947</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0859375</v>
+        <v>0.09868421052631579</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03125</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1484375</v>
+        <v>0.1710526315789474</v>
       </c>
       <c r="R9">
-        <v>0.0625</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="S9">
-        <v>0.4765625</v>
+        <v>0.4539473684210527</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09946524064171124</v>
+        <v>0.1051212938005391</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0267379679144385</v>
+        <v>0.03054806828391734</v>
       </c>
       <c r="E10">
-        <v>0.00106951871657754</v>
+        <v>0.001796945193171608</v>
       </c>
       <c r="F10">
-        <v>0.07807486631016043</v>
+        <v>0.07367475292003593</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1165775401069519</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01818181818181818</v>
+        <v>0.01796945193171608</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.227807486631016</v>
+        <v>0.2309074573225517</v>
       </c>
       <c r="R10">
-        <v>0.07058823529411765</v>
+        <v>0.06918238993710692</v>
       </c>
       <c r="S10">
-        <v>0.3614973262032086</v>
+        <v>0.3575920934411501</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.003745318352059925</v>
+        <v>0.003105590062111801</v>
       </c>
       <c r="G11">
-        <v>0.149812734082397</v>
+        <v>0.1459627329192547</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07865168539325842</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="K11">
-        <v>0.1910112359550562</v>
+        <v>0.1925465838509317</v>
       </c>
       <c r="L11">
-        <v>0.5543071161048689</v>
+        <v>0.5527950310559007</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02247191011235955</v>
+        <v>0.01863354037267081</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.785234899328859</v>
+        <v>0.770949720670391</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1879194630872483</v>
+        <v>0.1955307262569832</v>
       </c>
       <c r="K12">
-        <v>0.01342281879194631</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="L12">
-        <v>0.006711409395973154</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.006711409395973154</v>
+        <v>0.0111731843575419</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02857142857142857</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="G13">
-        <v>0.7142857142857143</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2285714285714286</v>
+        <v>0.25</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02857142857142857</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01226993865030675</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2208588957055215</v>
+        <v>0.211340206185567</v>
       </c>
       <c r="I15">
-        <v>0.0736196319018405</v>
+        <v>0.06701030927835051</v>
       </c>
       <c r="J15">
-        <v>0.3742331288343558</v>
+        <v>0.3505154639175257</v>
       </c>
       <c r="K15">
-        <v>0.0245398773006135</v>
+        <v>0.05670103092783505</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.006134969325153374</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03680981595092025</v>
+        <v>0.03608247422680412</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2515337423312883</v>
+        <v>0.2577319587628866</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03149606299212598</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2047244094488189</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="I16">
-        <v>0.1023622047244094</v>
+        <v>0.1036585365853658</v>
       </c>
       <c r="J16">
-        <v>0.3700787401574803</v>
+        <v>0.4024390243902439</v>
       </c>
       <c r="K16">
-        <v>0.1417322834645669</v>
+        <v>0.1280487804878049</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02362204724409449</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04724409448818898</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.07874015748031496</v>
+        <v>0.07926829268292683</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01272264631043257</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2010178117048346</v>
+        <v>0.203781512605042</v>
       </c>
       <c r="I17">
-        <v>0.08396946564885496</v>
+        <v>0.07983193277310924</v>
       </c>
       <c r="J17">
-        <v>0.4147582697201018</v>
+        <v>0.4138655462184874</v>
       </c>
       <c r="K17">
-        <v>0.1068702290076336</v>
+        <v>0.1092436974789916</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02290076335877863</v>
+        <v>0.02100840336134454</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06361323155216285</v>
+        <v>0.06302521008403361</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09414758269720101</v>
+        <v>0.09453781512605042</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02941176470588235</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2132352941176471</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="I18">
-        <v>0.09558823529411764</v>
+        <v>0.08387096774193549</v>
       </c>
       <c r="J18">
-        <v>0.3970588235294117</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="K18">
-        <v>0.1544117647058824</v>
+        <v>0.1483870967741935</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.01290322580645161</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.01470588235294118</v>
+        <v>0.01290322580645161</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09558823529411764</v>
+        <v>0.09677419354838709</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.00816326530612245</v>
+        <v>0.00782608695652174</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2510204081632653</v>
+        <v>0.2504347826086957</v>
       </c>
       <c r="I19">
-        <v>0.05918367346938776</v>
+        <v>0.06260869565217392</v>
       </c>
       <c r="J19">
-        <v>0.3530612244897959</v>
+        <v>0.3539130434782609</v>
       </c>
       <c r="K19">
-        <v>0.1275510204081633</v>
+        <v>0.1252173913043478</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02346938775510204</v>
+        <v>0.02434782608695652</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07040816326530612</v>
+        <v>0.07130434782608695</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1071428571428571</v>
+        <v>0.1043478260869565</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UC Santa Barbara_B.xlsx
+++ b/team_specific_matrix/UC Santa Barbara_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2153846153846154</v>
+        <v>0.2150537634408602</v>
       </c>
       <c r="C2">
-        <v>0.5115384615384615</v>
+        <v>0.5125448028673835</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02692307692307692</v>
+        <v>0.02867383512544803</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1384615384615385</v>
+        <v>0.1397849462365591</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1076923076923077</v>
+        <v>0.1039426523297491</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007407407407407408</v>
+        <v>0.006896551724137931</v>
       </c>
       <c r="C3">
-        <v>0.02962962962962963</v>
+        <v>0.02758620689655172</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02962962962962963</v>
+        <v>0.02758620689655172</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7407407407407407</v>
+        <v>0.7517241379310344</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1925925925925926</v>
+        <v>0.1862068965517241</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07843137254901961</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5882352941176471</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3333333333333333</v>
+        <v>0.3157894736842105</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03703703703703703</v>
+        <v>0.04390243902439024</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01587301587301587</v>
+        <v>0.01951219512195122</v>
       </c>
       <c r="E6">
-        <v>0.005291005291005291</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="F6">
-        <v>0.04232804232804233</v>
+        <v>0.04390243902439024</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2063492063492063</v>
+        <v>0.2</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02116402116402116</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2433862433862434</v>
+        <v>0.2390243902439024</v>
       </c>
       <c r="R6">
-        <v>0.06878306878306878</v>
+        <v>0.06829268292682927</v>
       </c>
       <c r="S6">
-        <v>0.3597883597883598</v>
+        <v>0.3560975609756097</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06666666666666667</v>
+        <v>0.06986899563318777</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01904761904761905</v>
+        <v>0.02183406113537118</v>
       </c>
       <c r="E7">
-        <v>0.004761904761904762</v>
+        <v>0.004366812227074236</v>
       </c>
       <c r="F7">
-        <v>0.06666666666666667</v>
+        <v>0.06550218340611354</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>0.1004366812227074</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.009523809523809525</v>
+        <v>0.008733624454148471</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.219047619047619</v>
+        <v>0.2096069868995633</v>
       </c>
       <c r="R7">
-        <v>0.1</v>
+        <v>0.09606986899563319</v>
       </c>
       <c r="S7">
-        <v>0.4142857142857143</v>
+        <v>0.4235807860262009</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09221311475409837</v>
+        <v>0.08829174664107485</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01844262295081967</v>
+        <v>0.01919385796545105</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04918032786885246</v>
+        <v>0.05374280230326296</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09221311475409837</v>
+        <v>0.08829174664107485</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01639344262295082</v>
+        <v>0.01919385796545105</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2110655737704918</v>
+        <v>0.2111324376199616</v>
       </c>
       <c r="R8">
-        <v>0.07581967213114754</v>
+        <v>0.07677543186180422</v>
       </c>
       <c r="S8">
-        <v>0.444672131147541</v>
+        <v>0.4433781190019194</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1118421052631579</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006578947368421052</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="E9">
-        <v>0.006578947368421052</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="F9">
-        <v>0.05921052631578947</v>
+        <v>0.06790123456790123</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09868421052631579</v>
+        <v>0.09876543209876543</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02631578947368421</v>
+        <v>0.0308641975308642</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1710526315789474</v>
+        <v>0.1728395061728395</v>
       </c>
       <c r="R9">
-        <v>0.06578947368421052</v>
+        <v>0.06790123456790123</v>
       </c>
       <c r="S9">
-        <v>0.4539473684210527</v>
+        <v>0.4382716049382716</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1051212938005391</v>
+        <v>0.103765690376569</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03054806828391734</v>
+        <v>0.03096234309623431</v>
       </c>
       <c r="E10">
-        <v>0.001796945193171608</v>
+        <v>0.001673640167364017</v>
       </c>
       <c r="F10">
-        <v>0.07367475292003593</v>
+        <v>0.07196652719665272</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1132075471698113</v>
+        <v>0.1112970711297071</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01796945193171608</v>
+        <v>0.01757322175732218</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2309074573225517</v>
+        <v>0.2317991631799163</v>
       </c>
       <c r="R10">
-        <v>0.06918238993710692</v>
+        <v>0.07280334728033473</v>
       </c>
       <c r="S10">
-        <v>0.3575920934411501</v>
+        <v>0.3581589958158996</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.003105590062111801</v>
+        <v>0.002890173410404624</v>
       </c>
       <c r="G11">
-        <v>0.1459627329192547</v>
+        <v>0.1445086705202312</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08695652173913043</v>
+        <v>0.0838150289017341</v>
       </c>
       <c r="K11">
-        <v>0.1925465838509317</v>
+        <v>0.1907514450867052</v>
       </c>
       <c r="L11">
-        <v>0.5527950310559007</v>
+        <v>0.5606936416184971</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01863354037267081</v>
+        <v>0.01734104046242774</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.770949720670391</v>
+        <v>0.7563451776649747</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1955307262569832</v>
+        <v>0.2131979695431472</v>
       </c>
       <c r="K12">
-        <v>0.0111731843575419</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="L12">
-        <v>0.0111731843575419</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0111731843575419</v>
+        <v>0.01015228426395939</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02272727272727273</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="G13">
-        <v>0.7045454545454546</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02272727272727273</v>
+        <v>0.01923076923076923</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01030927835051546</v>
+        <v>0.009569377990430622</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.211340206185567</v>
+        <v>0.2009569377990431</v>
       </c>
       <c r="I15">
-        <v>0.06701030927835051</v>
+        <v>0.06220095693779904</v>
       </c>
       <c r="J15">
-        <v>0.3505154639175257</v>
+        <v>0.354066985645933</v>
       </c>
       <c r="K15">
-        <v>0.05670103092783505</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01030927835051546</v>
+        <v>0.01435406698564593</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03608247422680412</v>
+        <v>0.03349282296650718</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2577319587628866</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02439024390243903</v>
+        <v>0.02793296089385475</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1951219512195122</v>
+        <v>0.1843575418994413</v>
       </c>
       <c r="I16">
-        <v>0.1036585365853658</v>
+        <v>0.1005586592178771</v>
       </c>
       <c r="J16">
-        <v>0.4024390243902439</v>
+        <v>0.4189944134078212</v>
       </c>
       <c r="K16">
-        <v>0.1280487804878049</v>
+        <v>0.1284916201117318</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01829268292682927</v>
+        <v>0.01675977653631285</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04878048780487805</v>
+        <v>0.0446927374301676</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.07926829268292683</v>
+        <v>0.0782122905027933</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01470588235294118</v>
+        <v>0.01574803149606299</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.203781512605042</v>
+        <v>0.2047244094488189</v>
       </c>
       <c r="I17">
-        <v>0.07983193277310924</v>
+        <v>0.07874015748031496</v>
       </c>
       <c r="J17">
-        <v>0.4138655462184874</v>
+        <v>0.4114173228346457</v>
       </c>
       <c r="K17">
-        <v>0.1092436974789916</v>
+        <v>0.1102362204724409</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02100840336134454</v>
+        <v>0.02755905511811024</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06302521008403361</v>
+        <v>0.05905511811023622</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09453781512605042</v>
+        <v>0.09251968503937008</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03225806451612903</v>
+        <v>0.02923976608187134</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2258064516129032</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I18">
-        <v>0.08387096774193549</v>
+        <v>0.07602339181286549</v>
       </c>
       <c r="J18">
-        <v>0.3870967741935484</v>
+        <v>0.3859649122807017</v>
       </c>
       <c r="K18">
-        <v>0.1483870967741935</v>
+        <v>0.152046783625731</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01290322580645161</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.01290322580645161</v>
+        <v>0.02339181286549707</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09677419354838709</v>
+        <v>0.0935672514619883</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.00782608695652174</v>
+        <v>0.008123476848090982</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2504347826086957</v>
+        <v>0.2502030869212023</v>
       </c>
       <c r="I19">
-        <v>0.06260869565217392</v>
+        <v>0.06417546709991877</v>
       </c>
       <c r="J19">
-        <v>0.3539130434782609</v>
+        <v>0.3517465475223396</v>
       </c>
       <c r="K19">
-        <v>0.1252173913043478</v>
+        <v>0.1251015434606012</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02434782608695652</v>
+        <v>0.02437043054427295</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07130434782608695</v>
+        <v>0.07148659626320066</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1043478260869565</v>
+        <v>0.1047928513403737</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UC Santa Barbara_B.xlsx
+++ b/team_specific_matrix/UC Santa Barbara_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2150537634408602</v>
+        <v>0.2164948453608248</v>
       </c>
       <c r="C2">
-        <v>0.5125448028673835</v>
+        <v>0.5120274914089347</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02867383512544803</v>
+        <v>0.0274914089347079</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1397849462365591</v>
+        <v>0.1374570446735395</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1039426523297491</v>
+        <v>0.1065292096219931</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006896551724137931</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="C3">
-        <v>0.02758620689655172</v>
+        <v>0.02649006622516556</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02758620689655172</v>
+        <v>0.02649006622516556</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7517241379310344</v>
+        <v>0.7483443708609272</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1862068965517241</v>
+        <v>0.1920529801324503</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08771929824561403</v>
+        <v>0.1</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5964912280701754</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3157894736842105</v>
+        <v>0.3166666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04390243902439024</v>
+        <v>0.05092592592592592</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01951219512195122</v>
+        <v>0.02314814814814815</v>
       </c>
       <c r="E6">
-        <v>0.004878048780487805</v>
+        <v>0.004629629629629629</v>
       </c>
       <c r="F6">
-        <v>0.04390243902439024</v>
+        <v>0.05092592592592592</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02439024390243903</v>
+        <v>0.02314814814814815</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2390243902439024</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="R6">
-        <v>0.06829268292682927</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="S6">
-        <v>0.3560975609756097</v>
+        <v>0.3472222222222222</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06986899563318777</v>
+        <v>0.07112970711297072</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02183406113537118</v>
+        <v>0.02092050209205021</v>
       </c>
       <c r="E7">
-        <v>0.004366812227074236</v>
+        <v>0.004184100418410041</v>
       </c>
       <c r="F7">
-        <v>0.06550218340611354</v>
+        <v>0.06276150627615062</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1004366812227074</v>
+        <v>0.104602510460251</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.008733624454148471</v>
+        <v>0.008368200836820083</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2096069868995633</v>
+        <v>0.2092050209205021</v>
       </c>
       <c r="R7">
-        <v>0.09606986899563319</v>
+        <v>0.09205020920502092</v>
       </c>
       <c r="S7">
-        <v>0.4235807860262009</v>
+        <v>0.4267782426778243</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08829174664107485</v>
+        <v>0.08614232209737828</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01919385796545105</v>
+        <v>0.02059925093632959</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05374280230326296</v>
+        <v>0.05243445692883895</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08829174664107485</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01919385796545105</v>
+        <v>0.01872659176029963</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2111324376199616</v>
+        <v>0.2134831460674157</v>
       </c>
       <c r="R8">
-        <v>0.07677543186180422</v>
+        <v>0.07677902621722846</v>
       </c>
       <c r="S8">
-        <v>0.4433781190019194</v>
+        <v>0.4419475655430712</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1111111111111111</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006172839506172839</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="E9">
-        <v>0.006172839506172839</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="F9">
-        <v>0.06790123456790123</v>
+        <v>0.06432748538011696</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09876543209876543</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0308641975308642</v>
+        <v>0.02923976608187134</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1728395061728395</v>
+        <v>0.1637426900584795</v>
       </c>
       <c r="R9">
-        <v>0.06790123456790123</v>
+        <v>0.07602339181286549</v>
       </c>
       <c r="S9">
-        <v>0.4382716049382716</v>
+        <v>0.4385964912280702</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.103765690376569</v>
+        <v>0.1044176706827309</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03096234309623431</v>
+        <v>0.03052208835341366</v>
       </c>
       <c r="E10">
-        <v>0.001673640167364017</v>
+        <v>0.001606425702811245</v>
       </c>
       <c r="F10">
-        <v>0.07196652719665272</v>
+        <v>0.07389558232931727</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1112970711297071</v>
+        <v>0.1140562248995984</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01757322175732218</v>
+        <v>0.01767068273092369</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2317991631799163</v>
+        <v>0.2321285140562249</v>
       </c>
       <c r="R10">
-        <v>0.07280334728033473</v>
+        <v>0.06987951807228916</v>
       </c>
       <c r="S10">
-        <v>0.3581589958158996</v>
+        <v>0.3558232931726907</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.002890173410404624</v>
+        <v>0.0028328611898017</v>
       </c>
       <c r="G11">
-        <v>0.1445086705202312</v>
+        <v>0.1444759206798867</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0838150289017341</v>
+        <v>0.0821529745042493</v>
       </c>
       <c r="K11">
-        <v>0.1907514450867052</v>
+        <v>0.1898016997167139</v>
       </c>
       <c r="L11">
-        <v>0.5606936416184971</v>
+        <v>0.5637393767705382</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01734104046242774</v>
+        <v>0.0169971671388102</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7563451776649747</v>
+        <v>0.7623762376237624</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2131979695431472</v>
+        <v>0.2079207920792079</v>
       </c>
       <c r="K12">
-        <v>0.01015228426395939</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="L12">
-        <v>0.01015228426395939</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01015228426395939</v>
+        <v>0.009900990099009901</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.01923076923076923</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="G13">
-        <v>0.7307692307692307</v>
+        <v>0.75</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2307692307692308</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.01923076923076923</v>
+        <v>0.01785714285714286</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.009569377990430622</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2009569377990431</v>
+        <v>0.1962616822429906</v>
       </c>
       <c r="I15">
-        <v>0.06220095693779904</v>
+        <v>0.06074766355140187</v>
       </c>
       <c r="J15">
-        <v>0.354066985645933</v>
+        <v>0.3598130841121495</v>
       </c>
       <c r="K15">
-        <v>0.05263157894736842</v>
+        <v>0.05607476635514019</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01435406698564593</v>
+        <v>0.01401869158878505</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03349282296650718</v>
+        <v>0.03271028037383177</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2727272727272727</v>
+        <v>0.2710280373831775</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02793296089385475</v>
+        <v>0.02688172043010753</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1843575418994413</v>
+        <v>0.1881720430107527</v>
       </c>
       <c r="I16">
-        <v>0.1005586592178771</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="J16">
-        <v>0.4189944134078212</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="K16">
-        <v>0.1284916201117318</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01675977653631285</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0446927374301676</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.0782122905027933</v>
+        <v>0.08064516129032258</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01574803149606299</v>
+        <v>0.01704545454545454</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2047244094488189</v>
+        <v>0.2045454545454546</v>
       </c>
       <c r="I17">
-        <v>0.07874015748031496</v>
+        <v>0.07954545454545454</v>
       </c>
       <c r="J17">
-        <v>0.4114173228346457</v>
+        <v>0.4128787878787879</v>
       </c>
       <c r="K17">
-        <v>0.1102362204724409</v>
+        <v>0.1098484848484848</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02755905511811024</v>
+        <v>0.02840909090909091</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05905511811023622</v>
+        <v>0.05871212121212122</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09251968503937008</v>
+        <v>0.08901515151515152</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02923976608187134</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2222222222222222</v>
+        <v>0.2171428571428571</v>
       </c>
       <c r="I18">
-        <v>0.07602339181286549</v>
+        <v>0.08</v>
       </c>
       <c r="J18">
-        <v>0.3859649122807017</v>
+        <v>0.3885714285714286</v>
       </c>
       <c r="K18">
-        <v>0.152046783625731</v>
+        <v>0.1485714285714286</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01754385964912281</v>
+        <v>0.02285714285714286</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.02339181286549707</v>
+        <v>0.02285714285714286</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.0935672514619883</v>
+        <v>0.09142857142857143</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.008123476848090982</v>
+        <v>0.00865460267505901</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2502030869212023</v>
+        <v>0.2478363493312352</v>
       </c>
       <c r="I19">
-        <v>0.06417546709991877</v>
+        <v>0.06687647521636507</v>
       </c>
       <c r="J19">
-        <v>0.3517465475223396</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="K19">
-        <v>0.1251015434606012</v>
+        <v>0.1227380015735641</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02437043054427295</v>
+        <v>0.02517702596380803</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07148659626320066</v>
+        <v>0.07081038552321008</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1047928513403737</v>
+        <v>0.1030684500393391</v>
       </c>
     </row>
   </sheetData>
